--- a/IO_1_classwork.xlsx
+++ b/IO_1_classwork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Симплекс" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>x1</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>F=7,5</t>
+  </si>
+  <si>
+    <t>Z(x)</t>
+  </si>
+  <si>
+    <t>Меняем знаки прямая</t>
+  </si>
+  <si>
+    <t>Fdv()</t>
   </si>
 </sst>
 </file>
@@ -612,9 +621,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -624,35 +630,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,27 +642,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -695,38 +656,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,6 +907,44 @@
         <a:xfrm>
           <a:off x="13594773" y="381001"/>
           <a:ext cx="1376796" cy="782942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>797718</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>601815</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>134046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="797718" y="7631906"/>
+          <a:ext cx="6543035" cy="2598640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,303 +1221,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="L8" s="17">
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="L8" s="13">
         <f>C14*$AO$10+D14*$AP$10+E14*$AQ$10+F14*$AR$10</f>
         <v>0</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="M8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="15">
         <v>5</v>
       </c>
-      <c r="S8" s="20" t="s">
+      <c r="S8" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="6"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="G9" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="G9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="L9" s="17">
+      <c r="I9" s="9"/>
+      <c r="L9" s="13">
         <f>C15*$AO$10+D15*$AP$10+E15*$AQ$10+F15*$AR$10</f>
         <v>0</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="19">
-        <v>3</v>
-      </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25" t="s">
+      <c r="N9" s="15">
+        <v>3</v>
+      </c>
+      <c r="S9" s="50"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="27" t="s">
+      <c r="X9" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="G10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="L10" s="17">
-        <v>1</v>
-      </c>
-      <c r="M10" s="28" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="L10" s="13">
+        <v>1</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="19">
-        <v>0</v>
-      </c>
-      <c r="S10" s="29" t="s">
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-      <c r="V10" s="26">
-        <v>0</v>
-      </c>
-      <c r="W10" s="26">
+      <c r="T10" s="53"/>
+      <c r="U10" s="17">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
+        <v>0</v>
+      </c>
+      <c r="W10" s="17">
         <v>2.5</v>
       </c>
-      <c r="X10" s="27">
+      <c r="X10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="17">
-        <v>1</v>
-      </c>
-      <c r="M11" s="28" t="s">
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="19">
-        <v>0</v>
-      </c>
-      <c r="S11" s="31" t="s">
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="S11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="33">
+      <c r="T11" s="55"/>
+      <c r="U11" s="56">
         <v>7.5</v>
       </c>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="58"/>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="17">
-        <v>1</v>
-      </c>
-      <c r="M12" s="28" t="s">
+      <c r="L12" s="13">
+        <v>1</v>
+      </c>
+      <c r="M12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="L13" s="17">
-        <v>1</v>
-      </c>
-      <c r="M13" s="28" t="s">
+      <c r="F13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="L13" s="13">
+        <v>1</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C14" s="41">
+      <c r="C14" s="25">
         <v>2</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="17">
         <v>-1</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="26">
         <v>2</v>
       </c>
-      <c r="F14" s="27">
-        <v>3</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C15" s="41">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
+      <c r="C15" s="25">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17">
         <v>2</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="26">
         <v>-1</v>
       </c>
-      <c r="F15" s="27">
-        <v>1</v>
-      </c>
-      <c r="G15" s="43">
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="51" t="s">
+      <c r="I19" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="51" t="s">
+      <c r="J19" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="E21" s="56">
+      <c r="E21" s="34">
         <v>-1</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="35">
         <v>2</v>
       </c>
-      <c r="G21" s="56">
-        <v>3</v>
-      </c>
-      <c r="H21" s="56">
-        <v>1</v>
-      </c>
-      <c r="I21" s="58">
-        <v>0</v>
-      </c>
-      <c r="J21" s="58">
+      <c r="G21" s="34">
+        <v>3</v>
+      </c>
+      <c r="H21" s="34">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
         <v>5</v>
       </c>
       <c r="K21">
@@ -1482,28 +1529,28 @@
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="25">
-        <v>1</v>
-      </c>
-      <c r="E22" s="56">
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="34">
         <v>2</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="37">
         <v>-1</v>
       </c>
-      <c r="G22" s="56">
-        <v>1</v>
-      </c>
-      <c r="H22" s="56">
-        <v>0</v>
-      </c>
-      <c r="I22" s="58">
-        <v>1</v>
-      </c>
-      <c r="J22" s="58">
+      <c r="G22" s="34">
+        <v>1</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="36">
+        <v>1</v>
+      </c>
+      <c r="J22" s="36">
         <v>3</v>
       </c>
       <c r="K22">
@@ -1515,151 +1562,151 @@
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="25">
-        <v>1</v>
-      </c>
-      <c r="E23" s="56">
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="34">
         <v>-2</v>
       </c>
-      <c r="F23" s="57">
-        <v>3</v>
-      </c>
-      <c r="G23" s="56">
+      <c r="F23" s="35">
+        <v>3</v>
+      </c>
+      <c r="G23" s="34">
         <v>-1</v>
       </c>
-      <c r="H23" s="56">
-        <v>0</v>
-      </c>
-      <c r="I23" s="58">
-        <v>0</v>
-      </c>
-      <c r="J23" s="58">
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="36">
+        <v>0</v>
+      </c>
+      <c r="J23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="16">
         <f>D21:J21/$F$21</f>
         <v>1</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="34">
         <f>D21:J21/$F$21</f>
         <v>-0.5</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="34">
         <f>D21:J21/$F$21</f>
         <v>1</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="34">
         <f>D21:J21/$F$21</f>
         <v>1.5</v>
       </c>
-      <c r="H27" s="56">
+      <c r="H27" s="34">
         <f>D21:J21/$F$21</f>
         <v>0.5</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="36">
         <f>D21:J21/$F$21</f>
         <v>0</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="36">
         <f>D21:J21/$F$21</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="16">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>2</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="34">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>1.5</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="34">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>0</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="34">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>2.5</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="34">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>0.5</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="36">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>1</v>
       </c>
-      <c r="J28" s="58">
+      <c r="J28" s="36">
         <f>D22:J22-D27:J27*$F$22</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="16">
         <f>D23:J23-D27:J27*$F$23</f>
         <v>-2</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="16">
         <f t="shared" ref="E29:J29" si="0">E23:K23-E27:K27*$F$23</f>
         <v>-0.5</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="16">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="16">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="16">
         <f t="shared" si="0"/>
         <v>-7.5</v>
       </c>
@@ -1676,6 +1723,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C25:C26"/>
@@ -1692,12 +1745,6 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1705,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:N26"/>
+  <dimension ref="C5:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,20 +1766,20 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="K5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -1790,16 +1837,16 @@
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="L9" s="4" t="s">
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="L9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="59"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
@@ -1901,7 +1948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K20" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1988,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K21" t="s">
         <v>21</v>
       </c>
@@ -1954,7 +2001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
       <c r="L22">
         <f t="shared" si="0"/>
         <v>-1</v>
@@ -1964,12 +2011,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +2027,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
       <c r="K25" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +2044,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
       <c r="K26" t="s">
         <v>27</v>
       </c>
@@ -2004,12 +2069,252 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="59"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="J32" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>6</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D35" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="J35" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J35:O35"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/IO_1_classwork.xlsx
+++ b/IO_1_classwork.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>x1</t>
   </si>
@@ -185,6 +185,199 @@
   </si>
   <si>
     <t>Fdv()</t>
+  </si>
+  <si>
+    <t>Базис</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <t>F(X0)</t>
+  </si>
+  <si>
+    <t>F(X1)</t>
+  </si>
+  <si>
+    <t>F(X2)</t>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> = 0, x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> = 5.5, x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> = 0, x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> = 2.5</t>
+    </r>
+  </si>
+  <si>
+    <t>F(X) = 2*0 + 6*0 + 6*2.5 = 15</t>
   </si>
 </sst>
 </file>
@@ -194,7 +387,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,8 +411,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,8 +451,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -611,12 +824,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -671,6 +899,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -689,54 +962,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1221,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,11 +1498,11 @@
     </row>
     <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="46"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
@@ -1281,12 +1525,12 @@
       <c r="N8" s="15">
         <v>5</v>
       </c>
-      <c r="S8" s="47" t="s">
+      <c r="S8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="49"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="43"/>
       <c r="W8" s="5"/>
       <c r="X8" s="6"/>
     </row>
@@ -1309,8 +1553,8 @@
       <c r="N9" s="15">
         <v>3</v>
       </c>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
       <c r="U9" s="16" t="s">
         <v>34</v>
       </c>
@@ -1344,10 +1588,10 @@
       <c r="N10" s="15">
         <v>0</v>
       </c>
-      <c r="S10" s="52" t="s">
+      <c r="S10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="T10" s="53"/>
+      <c r="T10" s="47"/>
       <c r="U10" s="17">
         <v>0</v>
       </c>
@@ -1371,16 +1615,16 @@
       <c r="N11" s="15">
         <v>0</v>
       </c>
-      <c r="S11" s="54" t="s">
+      <c r="S11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="56">
+      <c r="T11" s="49"/>
+      <c r="U11" s="50">
         <v>7.5</v>
       </c>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="52"/>
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L12" s="13">
@@ -1460,40 +1704,40 @@
     </row>
     <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="53" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="41"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="33" t="s">
@@ -1589,28 +1833,28 @@
     </row>
     <row r="24" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="41"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" s="33" t="s">
@@ -1723,12 +1967,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="S8:V8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:X11"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C25:C26"/>
@@ -1745,6 +1983,12 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:X11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1752,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:O39"/>
+  <dimension ref="C5:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,17 +2548,370 @@
         <v>6</v>
       </c>
     </row>
+    <row r="57" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="60">
+        <v>2</v>
+      </c>
+      <c r="E59" s="60">
+        <v>1</v>
+      </c>
+      <c r="F59" s="60">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="61">
+        <v>3</v>
+      </c>
+      <c r="H59" s="60">
+        <v>3</v>
+      </c>
+      <c r="I59" s="60">
+        <v>1</v>
+      </c>
+      <c r="J59" s="60">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59">
+        <f xml:space="preserve"> 2 /3</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="60">
+        <v>3</v>
+      </c>
+      <c r="E60" s="60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="60">
+        <v>-1</v>
+      </c>
+      <c r="I60" s="60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="60">
+        <v>0</v>
+      </c>
+      <c r="E61" s="60">
+        <v>-2</v>
+      </c>
+      <c r="F61" s="60">
+        <v>0</v>
+      </c>
+      <c r="G61" s="61">
+        <v>-6</v>
+      </c>
+      <c r="H61" s="60">
+        <v>-6</v>
+      </c>
+      <c r="I61" s="60">
+        <v>0</v>
+      </c>
+      <c r="J61" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="H63" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="62">
+        <f xml:space="preserve"> 2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E64" s="62">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F64" s="62">
+        <f>-1/3</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="G64" s="60">
+        <v>1</v>
+      </c>
+      <c r="H64" s="60">
+        <v>1</v>
+      </c>
+      <c r="I64" s="62">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J64" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="62">
+        <f xml:space="preserve"> 11/3</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E65" s="62">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F65" s="63">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G65" s="60">
+        <v>2</v>
+      </c>
+      <c r="H65" s="60">
+        <v>0</v>
+      </c>
+      <c r="I65" s="62">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J65" s="60">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65">
+        <f xml:space="preserve"> 11/2</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="60">
+        <v>4</v>
+      </c>
+      <c r="E66" s="60">
+        <v>0</v>
+      </c>
+      <c r="F66" s="61">
+        <v>-2</v>
+      </c>
+      <c r="G66" s="60">
+        <v>0</v>
+      </c>
+      <c r="H66" s="60">
+        <v>0</v>
+      </c>
+      <c r="I66" s="60">
+        <v>2</v>
+      </c>
+      <c r="J66" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="J68" s="64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="62">
+        <f>5/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="E69" s="64">
+        <v>1</v>
+      </c>
+      <c r="F69" s="64">
+        <v>0</v>
+      </c>
+      <c r="G69" s="64">
+        <v>2</v>
+      </c>
+      <c r="H69" s="64">
+        <v>1</v>
+      </c>
+      <c r="I69" s="62">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="62">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="62">
+        <f>11/2</f>
+        <v>5.5</v>
+      </c>
+      <c r="E70" s="64">
+        <v>2</v>
+      </c>
+      <c r="F70" s="64">
+        <v>1</v>
+      </c>
+      <c r="G70" s="64">
+        <v>3</v>
+      </c>
+      <c r="H70" s="64">
+        <v>0</v>
+      </c>
+      <c r="I70" s="62">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="J70" s="62">
+        <f>3/2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="64">
+        <v>15</v>
+      </c>
+      <c r="E71" s="64">
+        <v>4</v>
+      </c>
+      <c r="F71" s="64">
+        <v>0</v>
+      </c>
+      <c r="G71" s="64">
+        <v>6</v>
+      </c>
+      <c r="H71" s="64">
+        <v>0</v>
+      </c>
+      <c r="I71" s="64">
+        <v>3</v>
+      </c>
+      <c r="J71" s="64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C73" s="65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C74" s="65" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
